--- a/Data/SeenRx/SeenRx_CRB.xlsx
+++ b/Data/SeenRx/SeenRx_CRB.xlsx
@@ -14,132 +14,168 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>FFTR</t>
   </si>
   <si>
-    <t>LIGAZID Seen Rx</t>
-  </si>
-  <si>
-    <t>EMAZID Seen Rx</t>
-  </si>
-  <si>
-    <t>LIPICON Seen Rx</t>
-  </si>
-  <si>
-    <t>AGLIP Seen Rx</t>
-  </si>
-  <si>
-    <t>CIFIBET Seen Rx</t>
-  </si>
-  <si>
-    <t>AMLEVO Seen Rx</t>
-  </si>
-  <si>
-    <t>CARDOBIS Seen Rx</t>
-  </si>
-  <si>
-    <t>RIVAROX Seen Rx</t>
-  </si>
-  <si>
-    <t>Noclog Seen Rx</t>
+    <t>LIGAZID</t>
+  </si>
+  <si>
+    <t>EMAZID</t>
+  </si>
+  <si>
+    <t>LIPICON</t>
+  </si>
+  <si>
+    <t>AGLIP</t>
+  </si>
+  <si>
+    <t>CIFIBET</t>
+  </si>
+  <si>
+    <t>AMLEVO</t>
+  </si>
+  <si>
+    <t>CARDOBIS</t>
+  </si>
+  <si>
+    <t>RIVAROX</t>
+  </si>
+  <si>
+    <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>CRB</t>
+  </si>
+  <si>
+    <t>CRB10</t>
+  </si>
+  <si>
+    <t>CRB11</t>
+  </si>
+  <si>
+    <t>CRB12</t>
+  </si>
+  <si>
+    <t>CRB13</t>
+  </si>
+  <si>
+    <t>CRB14</t>
+  </si>
+  <si>
+    <t>CRB15</t>
+  </si>
+  <si>
+    <t>CRB16</t>
+  </si>
+  <si>
+    <t>CRB20</t>
+  </si>
+  <si>
+    <t>CRB21</t>
+  </si>
+  <si>
+    <t>CRB22</t>
+  </si>
+  <si>
+    <t>CRB23</t>
+  </si>
+  <si>
+    <t>CRB24</t>
+  </si>
+  <si>
+    <t>CRB25</t>
+  </si>
+  <si>
+    <t>CRB26</t>
+  </si>
+  <si>
+    <t>CRB30</t>
+  </si>
+  <si>
+    <t>CRB31</t>
+  </si>
+  <si>
+    <t>CRB32</t>
+  </si>
+  <si>
+    <t>CRB33</t>
+  </si>
+  <si>
+    <t>CRB34</t>
+  </si>
+  <si>
+    <t>CRB35</t>
+  </si>
+  <si>
+    <t>CRB40</t>
+  </si>
+  <si>
+    <t>CRB41</t>
+  </si>
+  <si>
+    <t>CRB42</t>
+  </si>
+  <si>
+    <t>CRB43</t>
+  </si>
+  <si>
+    <t>CRB44</t>
+  </si>
+  <si>
+    <t>CRB50</t>
+  </si>
+  <si>
+    <t>CRB51</t>
+  </si>
+  <si>
+    <t>CRB52</t>
+  </si>
+  <si>
+    <t>CRB53</t>
+  </si>
+  <si>
+    <t>CRB54</t>
+  </si>
+  <si>
+    <t>CRB55</t>
   </si>
   <si>
     <t>CRB60</t>
   </si>
   <si>
-    <t>CRB40</t>
-  </si>
-  <si>
-    <t>CRB10</t>
-  </si>
-  <si>
-    <t>CRB50</t>
+    <t>CRB61</t>
+  </si>
+  <si>
+    <t>CRB62</t>
+  </si>
+  <si>
+    <t>CRB63</t>
+  </si>
+  <si>
+    <t>CRB64</t>
+  </si>
+  <si>
+    <t>CRB65</t>
   </si>
   <si>
     <t>CRB70</t>
   </si>
   <si>
-    <t>CRB20</t>
-  </si>
-  <si>
-    <t>CRB30</t>
-  </si>
-  <si>
-    <t>CRB51</t>
-  </si>
-  <si>
-    <t>CRB42</t>
-  </si>
-  <si>
-    <t>CRB31</t>
-  </si>
-  <si>
-    <t>CRB12</t>
-  </si>
-  <si>
-    <t>CRB53</t>
-  </si>
-  <si>
-    <t>CRB41</t>
-  </si>
-  <si>
-    <t>CRB13</t>
-  </si>
-  <si>
-    <t>CRB61</t>
+    <t>CRB71</t>
+  </si>
+  <si>
+    <t>CRB72</t>
   </si>
   <si>
     <t>CRB73</t>
   </si>
   <si>
-    <t>CRB43</t>
-  </si>
-  <si>
-    <t>CRB55</t>
-  </si>
-  <si>
-    <t>CRB22</t>
-  </si>
-  <si>
-    <t>CRB72</t>
-  </si>
-  <si>
-    <t>CRB32</t>
-  </si>
-  <si>
-    <t>CRB63</t>
-  </si>
-  <si>
-    <t>CRB52</t>
-  </si>
-  <si>
     <t>CRB74</t>
   </si>
   <si>
-    <t>CRB62</t>
-  </si>
-  <si>
-    <t>CRB23</t>
-  </si>
-  <si>
-    <t>CRB64</t>
-  </si>
-  <si>
-    <t>CRB71</t>
-  </si>
-  <si>
-    <t>CRB65</t>
-  </si>
-  <si>
-    <t>CRB54</t>
-  </si>
-  <si>
-    <t>CRB44</t>
-  </si>
-  <si>
-    <t>CRB15</t>
+    <t>CRB75</t>
   </si>
 </sst>
 </file>
@@ -497,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,31 +576,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="H2">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -572,31 +608,31 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
       <c r="H3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -604,31 +640,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>3</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -636,31 +672,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -668,25 +704,25 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -700,7 +736,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -715,16 +751,16 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -732,14 +768,14 @@
         <v>16</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
@@ -747,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -770,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -782,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -796,7 +832,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -808,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -828,25 +864,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -860,28 +896,28 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>3</v>
       </c>
-      <c r="G12">
-        <v>4</v>
-      </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -895,10 +931,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -907,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -924,13 +960,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -942,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -956,10 +992,10 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -974,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -988,13 +1024,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1003,16 +1039,16 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1020,13 +1056,13 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1035,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1052,7 +1088,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1067,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1084,13 +1120,13 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1102,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1116,7 +1152,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1131,16 +1167,16 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1148,22 +1184,22 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1180,13 +1216,13 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1198,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1212,22 +1248,22 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -1236,7 +1272,7 @@
         <v>3</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1244,16 +1280,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1282,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1294,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1311,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1320,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -1340,7 +1376,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1361,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1372,31 +1408,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1404,31 +1440,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>3</v>
       </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1436,22 +1472,22 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1460,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1468,13 +1504,13 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1483,16 +1519,16 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>4</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1500,7 +1536,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1518,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1538,24 +1574,408 @@
         <v>0</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>23</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>8</v>
+      </c>
+      <c r="H40">
+        <v>16</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>7</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
         <v>0</v>
       </c>
     </row>

--- a/Data/SeenRx/SeenRx_CRB.xlsx
+++ b/Data/SeenRx/SeenRx_CRB.xlsx
@@ -576,31 +576,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -608,31 +608,31 @@
         <v>11</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>9</v>
-      </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -640,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -838,22 +838,22 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -902,22 +902,22 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1120,13 +1120,13 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1248,31 +1248,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1280,13 +1280,13 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1312,13 +1312,13 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1356,13 +1356,13 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1458,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1472,22 +1472,22 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1536,7 +1536,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1600,25 +1600,25 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
         <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1632,25 +1632,25 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1696,25 +1696,25 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1792,31 +1792,31 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1824,7 +1824,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1836,19 +1836,19 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1856,16 +1856,16 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1952,13 +1952,13 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1967,10 +1967,10 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>

--- a/Data/SeenRx/SeenRx_CRB.xlsx
+++ b/Data/SeenRx/SeenRx_CRB.xlsx
@@ -576,31 +576,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -608,13 +608,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -640,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -655,16 +655,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -835,10 +835,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -847,16 +847,16 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -911,16 +911,16 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1056,13 +1056,13 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1312,13 +1312,13 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1344,7 +1344,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1353,16 +1353,16 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1408,13 +1408,13 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1458,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1472,13 +1472,13 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1554,13 +1554,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1586,10 +1586,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1600,31 +1600,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1632,13 +1632,13 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1705,22 +1705,22 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1728,7 +1728,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1792,13 +1792,13 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1824,7 +1824,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1839,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1874,13 +1874,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1888,7 +1888,7 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C44">
         <v>0</v>
